--- a/Pitloc.xlsx
+++ b/Pitloc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Collahuasi-Validador-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{329D5B3D-099A-4668-A94B-E04DD89F7708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF19DC-03C0-4B34-95C4-2E658536A0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E97EC73E-ECEC-41E6-8D39-B3CFC605FCF1}"/>
   </bookViews>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C049FC-8AA8-4F51-8BF7-FE6731C3AFC7}">
   <dimension ref="A1:AP664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="B589" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
